--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wtan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wtan\Documents\Practices\leetcode_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
   <si>
     <t>Difficulty</t>
   </si>
@@ -93,6 +93,240 @@
   </si>
   <si>
     <t>Design, Qeueue</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>DFS, Stack</t>
+  </si>
+  <si>
+    <t>Plus One</t>
+  </si>
+  <si>
+    <t>Array, Math</t>
+  </si>
+  <si>
+    <t>Shortest Distance from All Buildings</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Hash Table, Design</t>
+  </si>
+  <si>
+    <t>UTF-8 Validation</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Android Unlock Patterns</t>
+  </si>
+  <si>
+    <t>DP, Backtracking</t>
+  </si>
+  <si>
+    <t>Number of Islands II</t>
+  </si>
+  <si>
+    <t>Union Find</t>
+  </si>
+  <si>
+    <t>Wiggle Sort</t>
+  </si>
+  <si>
+    <t>Array, Sort</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>DFS, BFS, Union Find</t>
+  </si>
+  <si>
+    <t>3 Sum Smaller</t>
+  </si>
+  <si>
+    <t>Array, Two Pointers</t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t>Queue Reconstruction by Height</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number</t>
+  </si>
+  <si>
+    <t>Hash Table, Math</t>
+  </si>
+  <si>
+    <t>The Skyline Problem</t>
+  </si>
+  <si>
+    <t>Binary Indexed tree, Segment Tree, Heap, Divide and Conquer</t>
+  </si>
+  <si>
+    <t>Encode String with Shortest Length</t>
+  </si>
+  <si>
+    <t>Perfect Rectangle</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>DFS, BFS</t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>DP, BFS, Math</t>
+  </si>
+  <si>
+    <t>Optimal Account Balancing</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t>Two Pointers, String</t>
+  </si>
+  <si>
+    <t>Walls and Gates</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Tree, Design</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water II</t>
+  </si>
+  <si>
+    <t>BFS, Heap</t>
+  </si>
+  <si>
+    <t>Generalized Abbreviation</t>
+  </si>
+  <si>
+    <t>Backtracking, Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number II</t>
+  </si>
+  <si>
+    <t>Math, Recursion</t>
+  </si>
+  <si>
+    <t>Design Hit Counter</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>DFS, Topological Sort, Memorization</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most Two Distinct Characters</t>
+  </si>
+  <si>
+    <t>Hash Table, Two Pointers, String</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Heap, Design</t>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+  </si>
+  <si>
+    <t>Flip Game II</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Find Permutation</t>
+  </si>
+  <si>
+    <t>Minimum Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Array, Hash Table, Design</t>
+  </si>
+  <si>
+    <t>The Maze</t>
+  </si>
+  <si>
+    <t>The Maze II</t>
+  </si>
+  <si>
+    <t>Logger Rate Limiter</t>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>Stack, Design</t>
+  </si>
+  <si>
+    <t>Flip Game</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Array, Stack, Two Pointers</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Divide and Conquer, Binary Indexed Tree, Segment Tree</t>
   </si>
 </sst>
 </file>
@@ -464,17 +698,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -592,6 +826,517 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
